--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_EQ组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -217,6 +217,22 @@
   </si>
   <si>
     <t>修复WAP预约房源，点击登录Button无反应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪林强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复CMS友情链接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +976,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,24 +1186,54 @@
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="16.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>59</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="11">
+        <v>42698</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="11">
+        <v>42698</v>
+      </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="7"/>
+      <c r="L4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="11">
+        <v>42698</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="7">
+        <v>5359</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
